--- a/Gantt/Gantt-Diagramm.xlsx
+++ b/Gantt/Gantt-Diagramm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaf\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaf\Documents\GitHub\Orga\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6146E4F6-63A7-4EDC-87F7-39103FAF709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202063F-62B6-48B7-A11B-25960E89E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" tabRatio="625" xr2:uid="{9200EDBC-68F7-411B-AB56-35F4536CC189}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="625" xr2:uid="{9200EDBC-68F7-411B-AB56-35F4536CC189}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,72 +36,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Nr.</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>Arbeitspaket</t>
   </si>
   <si>
     <t>Dauer</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Flo</t>
-  </si>
-  <si>
-    <t>Silas</t>
-  </si>
-  <si>
-    <t>Lukas</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Benutzeroberfläche</t>
-  </si>
-  <si>
-    <t>Restaurantoberfläche</t>
-  </si>
-  <si>
-    <t>Datenbank</t>
-  </si>
-  <si>
-    <t>Testen</t>
-  </si>
-  <si>
-    <t>Protokolle</t>
+    <t>Startseite</t>
+  </si>
+  <si>
+    <t>Karte + QR-Code scannen</t>
+  </si>
+  <si>
+    <t>Restaurantsuche</t>
+  </si>
+  <si>
+    <t>Restaurantübersicht</t>
+  </si>
+  <si>
+    <t>Bestellen</t>
+  </si>
+  <si>
+    <t>Auswahl Gerichte</t>
+  </si>
+  <si>
+    <t>Digitale Rechnungen</t>
+  </si>
+  <si>
+    <t>Bezahlen</t>
+  </si>
+  <si>
+    <t>Registrierung</t>
+  </si>
+  <si>
+    <t>Anlegen von Accounts</t>
+  </si>
+  <si>
+    <t>Erstellen von Restaurants</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Mitarbeiterlogin</t>
+  </si>
+  <si>
+    <t>Restaurantansicht</t>
+  </si>
+  <si>
+    <t>Erstellen Speisekarte</t>
+  </si>
+  <si>
+    <t>Speisekarte einscannen</t>
+  </si>
+  <si>
+    <t>Mitarbeiterschlüssel generieren</t>
+  </si>
+  <si>
+    <t>Mitarbeiteransicht</t>
+  </si>
+  <si>
+    <t>QR-Code scannen</t>
+  </si>
+  <si>
+    <t>Tischansicht</t>
+  </si>
+  <si>
+    <t>Bestellansicht</t>
+  </si>
+  <si>
+    <t>Datenbanken</t>
+  </si>
+  <si>
+    <t>Lesen/Schreiben</t>
+  </si>
+  <si>
+    <t>Vorgänger</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7, 3.2</t>
+  </si>
+  <si>
+    <t>7, 6.2</t>
+  </si>
+  <si>
+    <t>7, 1</t>
+  </si>
+  <si>
+    <t>7, 5.1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7, 4, 5.3</t>
+  </si>
+  <si>
+    <t>Tisch QR-Code generieren</t>
+  </si>
+  <si>
+    <t>7, 4.1</t>
+  </si>
+  <si>
+    <t>7, 6</t>
+  </si>
+  <si>
+    <t>7, 1, 3.1</t>
+  </si>
+  <si>
+    <t>7, 1, 5.4, 3.2</t>
+  </si>
+  <si>
+    <t>7, 5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7, 2.1, 3, 5.1</t>
+  </si>
+  <si>
+    <t>7, 1, 2, 5.1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -131,14 +260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,36 +275,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7672C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,44 +451,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -358,64 +469,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF7672C0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,26 +569,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:col>46</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -484,6 +620,56 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>83464</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>246376</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17814618" y="955367"/>
+          <a:ext cx="7782912" cy="2059754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -784,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC85D0-D5CF-4461-A9A6-9B04E8F8BB21}">
-  <dimension ref="B1:Q12"/>
+  <dimension ref="U1:BB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,221 +983,1115 @@
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="2.28515625" customWidth="1"/>
     <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="54" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="21:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="16"/>
+    </row>
+    <row r="3" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U3" s="18">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="26">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="11"/>
+    </row>
+    <row r="4" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="36"/>
+    </row>
+    <row r="5" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="11"/>
+    </row>
+    <row r="6" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="11"/>
+    </row>
+    <row r="7" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U7" s="19">
+        <v>2</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="11"/>
+    </row>
+    <row r="8" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="Q2" s="15" t="s">
+      <c r="W8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="11"/>
+    </row>
+    <row r="9" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="11"/>
+    </row>
+    <row r="10" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="37"/>
+    </row>
+    <row r="11" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U11" s="20">
+        <v>3</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="11"/>
+    </row>
+    <row r="12" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="X12" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="11"/>
+    </row>
+    <row r="13" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="W13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="11"/>
+    </row>
+    <row r="14" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U14" s="21">
+        <v>4</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="11"/>
+    </row>
+    <row r="15" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="11"/>
+    </row>
+    <row r="16" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U16" s="22">
+        <v>5</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="11"/>
+    </row>
+    <row r="17" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13">
-        <v>8</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="3"/>
-      <c r="Q3" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="W17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="11"/>
+    </row>
+    <row r="18" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13">
+      <c r="W18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+    </row>
+    <row r="19" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="X19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="11"/>
+    </row>
+    <row r="20" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="11"/>
+    </row>
+    <row r="21" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U21" s="23">
+        <v>6</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="X21" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="11"/>
+    </row>
+    <row r="22" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="X22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="11"/>
+    </row>
+    <row r="23" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="31">
+        <v>5</v>
+      </c>
+      <c r="X23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="11"/>
+    </row>
+    <row r="24" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="31">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="Q4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13">
-        <v>9</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
-      <c r="Q5" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="X24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="11"/>
+    </row>
+    <row r="25" spans="21:54" x14ac:dyDescent="0.25">
+      <c r="U25" s="24">
+        <v>7</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="32">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
+      <c r="X25" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="11"/>
+    </row>
+    <row r="26" spans="21:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="W26" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:M2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1020,27 +2100,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Excel.Sheet.8" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Excel.Sheet.8" shapeId="1026" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>46</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Excel.Sheet.8" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Excel.Sheet.8" shapeId="1026" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Gantt/Gantt-Diagramm.xlsx
+++ b/Gantt/Gantt-Diagramm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaf\Documents\GitHub\Orga\Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Documents\GitHub\Orga\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202063F-62B6-48B7-A11B-25960E89E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B0A578-997F-4145-AFE0-151E7387DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="625" xr2:uid="{9200EDBC-68F7-411B-AB56-35F4536CC189}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="625" xr2:uid="{9200EDBC-68F7-411B-AB56-35F4536CC189}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -561,116 +561,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>83464</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>186040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>246376</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150294</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17814618" y="955367"/>
-          <a:ext cx="7782912" cy="2059754"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,10 +859,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC85D0-D5CF-4461-A9A6-9B04E8F8BB21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC85D0-D5CF-4461-A9A6-9B04E8F8BB21}">
   <dimension ref="U1:BB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
@@ -2095,34 +1985,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Excel.Sheet.8" shapeId="1026" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Excel.Sheet.8" shapeId="1026" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>